--- a/biology/Médecine/Chef_de_clinique_des_universités-assistant_des_hôpitaux/Chef_de_clinique_des_universités-assistant_des_hôpitaux.xlsx
+++ b/biology/Médecine/Chef_de_clinique_des_universités-assistant_des_hôpitaux/Chef_de_clinique_des_universités-assistant_des_hôpitaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chef_de_clinique_des_universit%C3%A9s-assistant_des_h%C3%B4pitaux</t>
+          <t>Chef_de_clinique_des_universités-assistant_des_hôpitaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chef de clinique des universités-assistant des hôpitaux (CCU-AH, souvent abrégé en CCA) est en France un personnel médical non titulaire exerçant une triple mission de soins, d'enseignement et de recherche au sein des centres hospitaliers universitaires.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chef_de_clinique_des_universit%C3%A9s-assistant_des_h%C3%B4pitaux</t>
+          <t>Chef_de_clinique_des_universités-assistant_des_hôpitaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Chef hospitalier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il accède à cet emploi dans les trois ans suivant la fin de son internat. Pour ce faire, le personnel doit exercer une activité clinique correspondant à sa spécialité médicale ou chirurgicale. Les dispositions statutaires pour les CCA, initialement définies par le décret no 84-135 du 24 février 1984[1], le sont désormais par le décret no 2021-1645 du 13 décembre 2021[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il accède à cet emploi dans les trois ans suivant la fin de son internat. Pour ce faire, le personnel doit exercer une activité clinique correspondant à sa spécialité médicale ou chirurgicale. Les dispositions statutaires pour les CCA, initialement définies par le décret no 84-135 du 24 février 1984, le sont désormais par le décret no 2021-1645 du 13 décembre 2021.
 La nomination en tant que chef de clinique-assistant intervient à la suite du recrutement conjoint par le directeur régional du CHU et le directeur de l'UFR concernée, sur proposition du chef de service concerné et après avis du conseil d'UFR et de la commission médicale d'établissement.
 Ces fonctions sont exercées pour une durée de deux ans renouvelable deux fois une année.
 La rémunération du chef de clinique comporte un traitement principal universitaire accompagné d'un émolument hospitalier.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chef_de_clinique_des_universit%C3%A9s-assistant_des_h%C3%B4pitaux</t>
+          <t>Chef_de_clinique_des_universités-assistant_des_hôpitaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Chef de médecine générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Compte tenu de la spécificité de la médecine générale qui n'est pas hospitalière et de la volonté des pouvoirs publics d'assurer une meilleure formation universitaire, il a été créé le corps de chef de clinique des universités de médecine générale (CCU-MG), répondant aux mêmes contraintes réglementaires que le corps des CCA si ce n'est que l'activité de soins se fait en ambulatoire. 
-Le CCU-MG accède à cet emploi dans les quatre ans suivant la fin de son internat. Les dispositions statutaires en vigueur pour les CCU-MG sont définies par le décret no 2008-744 du 28 juillet 2008[3].
+Le CCU-MG accède à cet emploi dans les quatre ans suivant la fin de son internat. Les dispositions statutaires en vigueur pour les CCU-MG sont définies par le décret no 2008-744 du 28 juillet 2008.
 Cette activité reste réglementée et quantifiée dans le temps de service.
-Ensuite la sous-section 53.03 du CNU peut nommer des MCU et de PU de médecine générale. En 2014, ils étaient 47[4]. Il existe en parallèle des postes de maîtres de conférence et de professeurs associés. En 2014, ils étaient 200[4].
+Ensuite la sous-section 53.03 du CNU peut nommer des MCU et de PU de médecine générale. En 2014, ils étaient 47. Il existe en parallèle des postes de maîtres de conférence et de professeurs associés. En 2014, ils étaient 200.
 </t>
         </is>
       </c>
